--- a/graphResult.xlsx
+++ b/graphResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reghn\Documents\GitHub\skripsksh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reghn\Documents\Github\skripsksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7EACF5-A4C7-4CBB-8E4C-678179000900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7862C59E-EAA6-4A53-8080-E618D9BE6A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1214,13 +1214,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6.63</c:v>
+                    <c:v>6,63</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.65</c:v>
+                    <c:v>6,65</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.41</c:v>
+                    <c:v>4,41</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1378,13 +1378,13 @@
                       <c:ptCount val="3"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>6.63</c:v>
+                          <c:v>6,63</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>6.65</c:v>
+                          <c:v>6,65</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>4.41</c:v>
+                          <c:v>4,41</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -1702,13 +1702,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6.62</c:v>
+                    <c:v>6,62</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.66</c:v>
+                    <c:v>6,66</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.13</c:v>
+                    <c:v>4,13</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1807,13 +1807,13 @@
                       <c:ptCount val="3"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>6.62</c:v>
+                          <c:v>6,62</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>6.66</c:v>
+                          <c:v>6,66</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>4.13</c:v>
+                          <c:v>4,13</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -2190,13 +2190,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6.62</c:v>
+                    <c:v>6,62</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.68</c:v>
+                    <c:v>6,68</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.63</c:v>
+                    <c:v>6,63</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2354,13 +2354,13 @@
                       <c:ptCount val="3"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>6.62</c:v>
+                          <c:v>6,62</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>6.68</c:v>
+                          <c:v>6,68</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>6.63</c:v>
+                          <c:v>6,63</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -2559,6 +2559,365 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9136482939632541E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bandwidth (Mbits/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$61:$B$63</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>6.65</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.66</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.27</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BBR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Cubic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Ledbat</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-990E-4416-9F0B-E76A383586EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP_Name</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$61:$B$63</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>6.65</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.66</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.27</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BBR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Cubic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Ledbat</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$61:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-990E-4416-9F0B-E76A383586EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="456290088"/>
+        <c:axId val="497371920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="456290088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497371920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497371920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456290088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2794,6 +3153,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5309,20 +5708,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5486,6 +6388,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341A1615-39F0-4781-B5D7-F507B6A659C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5865,8 +6803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61643504-8CD3-4496-87A8-970EF44ED9F6}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="R108" sqref="R108"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6035,15 +6973,33 @@
       <c r="A61" t="s">
         <v>2</v>
       </c>
+      <c r="B61">
+        <v>6.65</v>
+      </c>
+      <c r="C61">
+        <v>951</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
+      <c r="B62">
+        <v>6.66</v>
+      </c>
+      <c r="C62">
+        <v>952</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
+      </c>
+      <c r="B63">
+        <v>1.27</v>
+      </c>
+      <c r="C63">
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">

--- a/graphResult.xlsx
+++ b/graphResult.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reghn\Documents\Github\skripsksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7862C59E-EAA6-4A53-8080-E618D9BE6A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9476D3D7-BA4C-4E04-8571-23BEB4D54E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
+    <workbookView xWindow="16485" yWindow="720" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>TCP_Name</t>
   </si>
@@ -70,14 +71,102 @@
   <si>
     <t>SK3_100</t>
   </si>
+  <si>
+    <t>LEDBAT</t>
+  </si>
+  <si>
+    <t>CUBIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK2 </t>
+  </si>
+  <si>
+    <t>0,275</t>
+  </si>
+  <si>
+    <t>1,732</t>
+  </si>
+  <si>
+    <t>0,066</t>
+  </si>
+  <si>
+    <t>0,182</t>
+  </si>
+  <si>
+    <t>0,058</t>
+  </si>
+  <si>
+    <t>3,235</t>
+  </si>
+  <si>
+    <t>3,036</t>
+  </si>
+  <si>
+    <t>3,117</t>
+  </si>
+  <si>
+    <t>13,051</t>
+  </si>
+  <si>
+    <t>658,012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packet_Loss </t>
+  </si>
+  <si>
+    <t>4,133</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>1,800</t>
+  </si>
+  <si>
+    <t>1,756</t>
+  </si>
+  <si>
+    <t>1,740</t>
+  </si>
+  <si>
+    <t>4,442</t>
+  </si>
+  <si>
+    <t>4,063</t>
+  </si>
+  <si>
+    <t>1,700</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,13 +193,352 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2656,13 +3084,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6.65</c:v>
+                    <c:v>6,65</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.66</c:v>
+                    <c:v>6,66</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.27</c:v>
+                    <c:v>1,27</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2734,13 +3162,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6.65</c:v>
+                    <c:v>6,65</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.66</c:v>
+                    <c:v>6,66</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.27</c:v>
+                    <c:v>1,27</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -6504,6 +6932,38 @@
 </table>
 </file>
 
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06DE867D-4848-4217-807B-6D3D118B0163}" name="Table8" displayName="Table8" ref="A8:G11" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A8:G11" xr:uid="{CCC40E2A-CCFD-4750-9227-4D4467124EFA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3573CD99-7270-44D5-BC95-BF3F7C6255E9}" name="Packet_Loss " dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{BAB04D87-0219-4AAA-8FE0-BAA8024E00A4}" name="SK1" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{A14BB3EC-0DBD-4079-BCFB-CA1DB610A841}" name="SK2 " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9B9114BA-C09D-4DE6-849B-EF5DBAB2FAF6}" name="SK3_20" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C36F9893-2037-41F1-9058-33295B04C82A}" name="SK3_40" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2F3EF4EE-BDDD-4121-9C24-3638F0D5EE2D}" name="SK3_70" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{6AFC07A9-190D-47E1-A2D4-1DC42A86B7DA}" name="SK3_100" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{64E491BB-3C16-4822-9821-14FBDEED8961}" name="Table9" displayName="Table9" ref="A1:G4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+  <autoFilter ref="A1:G4" xr:uid="{0BCA28B2-EFC3-4D9A-9E42-9B0637D35BCC}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DD047679-330F-4ACA-990B-003C89338821}" name="delay" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6686CE0A-E625-45A3-96EB-2A9C6A9D9C49}" name="SK1" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E6F14D97-9883-4D11-BDBE-F3C4223E1CA7}" name="SK2 " dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{2D723C82-7823-45F3-BBBE-8ABC99DB7E83}" name="SK3_20" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{622753E4-4F54-48F4-9D5B-86F6F733A9C7}" name="SK3_40" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{B8E67B57-9FAD-4516-A5B4-F7AC9474318F}" name="SK3_70" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{920E1301-B36A-4728-A1BE-34435FFBD109}" name="SK3_100" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6803,8 +7263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61643504-8CD3-4496-87A8-970EF44ED9F6}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7108,4 +7568,239 @@
     <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CF5371-4BDF-4DE0-8BDB-1F6B1D24B321}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>29.437000000000001</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/graphResult.xlsx
+++ b/graphResult.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reghn\Documents\Github\skripsksh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reghn\Documents\GitHub\skripsksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9476D3D7-BA4C-4E04-8571-23BEB4D54E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB0209B-B9CF-474B-8955-A2D42D0E977B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16485" yWindow="720" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Datas" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>TCP_Name</t>
   </si>
@@ -137,6 +138,15 @@
   <si>
     <t>1,700</t>
   </si>
+  <si>
+    <t>*Bottleneck 1Mb/s</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>pkt loss</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="135"/>
@@ -220,11 +230,150 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -242,7 +391,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -366,144 +532,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -519,24 +547,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1642,13 +1653,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6,63</c:v>
+                    <c:v>6.63</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6,65</c:v>
+                    <c:v>6.65</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4,41</c:v>
+                    <c:v>4.41</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1806,13 +1817,13 @@
                       <c:ptCount val="3"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>6,63</c:v>
+                          <c:v>6.63</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>6,65</c:v>
+                          <c:v>6.65</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>4,41</c:v>
+                          <c:v>4.41</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -2130,13 +2141,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6,62</c:v>
+                    <c:v>6.62</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6,66</c:v>
+                    <c:v>6.66</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4,13</c:v>
+                    <c:v>4.13</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2235,13 +2246,13 @@
                       <c:ptCount val="3"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>6,62</c:v>
+                          <c:v>6.62</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>6,66</c:v>
+                          <c:v>6.66</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>4,13</c:v>
+                          <c:v>4.13</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -2618,13 +2629,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6,62</c:v>
+                    <c:v>6.62</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6,68</c:v>
+                    <c:v>6.68</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6,63</c:v>
+                    <c:v>6.63</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2782,13 +2793,13 @@
                       <c:ptCount val="3"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>6,62</c:v>
+                          <c:v>6.62</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>6,68</c:v>
+                          <c:v>6.68</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>6,63</c:v>
+                          <c:v>6.63</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -3084,13 +3095,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6,65</c:v>
+                    <c:v>6.65</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6,66</c:v>
+                    <c:v>6.66</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1,27</c:v>
+                    <c:v>1.27</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3162,13 +3173,13 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6,65</c:v>
+                    <c:v>6.65</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6,66</c:v>
+                    <c:v>6.66</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1,27</c:v>
+                    <c:v>1.27</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -6933,32 +6944,32 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06DE867D-4848-4217-807B-6D3D118B0163}" name="Table8" displayName="Table8" ref="A8:G11" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06DE867D-4848-4217-807B-6D3D118B0163}" name="Table8" displayName="Table8" ref="A8:G11" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A8:G11" xr:uid="{CCC40E2A-CCFD-4750-9227-4D4467124EFA}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3573CD99-7270-44D5-BC95-BF3F7C6255E9}" name="Packet_Loss " dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{BAB04D87-0219-4AAA-8FE0-BAA8024E00A4}" name="SK1" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A14BB3EC-0DBD-4079-BCFB-CA1DB610A841}" name="SK2 " dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9B9114BA-C09D-4DE6-849B-EF5DBAB2FAF6}" name="SK3_20" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C36F9893-2037-41F1-9058-33295B04C82A}" name="SK3_40" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{2F3EF4EE-BDDD-4121-9C24-3638F0D5EE2D}" name="SK3_70" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{6AFC07A9-190D-47E1-A2D4-1DC42A86B7DA}" name="SK3_100" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3573CD99-7270-44D5-BC95-BF3F7C6255E9}" name="Packet_Loss " dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{BAB04D87-0219-4AAA-8FE0-BAA8024E00A4}" name="SK1" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{A14BB3EC-0DBD-4079-BCFB-CA1DB610A841}" name="SK2 " dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{9B9114BA-C09D-4DE6-849B-EF5DBAB2FAF6}" name="SK3_20" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{C36F9893-2037-41F1-9058-33295B04C82A}" name="SK3_40" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{2F3EF4EE-BDDD-4121-9C24-3638F0D5EE2D}" name="SK3_70" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{6AFC07A9-190D-47E1-A2D4-1DC42A86B7DA}" name="SK3_100" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{64E491BB-3C16-4822-9821-14FBDEED8961}" name="Table9" displayName="Table9" ref="A1:G4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{64E491BB-3C16-4822-9821-14FBDEED8961}" name="Table9" displayName="Table9" ref="A1:G4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G4" xr:uid="{0BCA28B2-EFC3-4D9A-9E42-9B0637D35BCC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DD047679-330F-4ACA-990B-003C89338821}" name="delay" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{6686CE0A-E625-45A3-96EB-2A9C6A9D9C49}" name="SK1" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E6F14D97-9883-4D11-BDBE-F3C4223E1CA7}" name="SK2 " dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{2D723C82-7823-45F3-BBBE-8ABC99DB7E83}" name="SK3_20" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{622753E4-4F54-48F4-9D5B-86F6F733A9C7}" name="SK3_40" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{B8E67B57-9FAD-4516-A5B4-F7AC9474318F}" name="SK3_70" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{920E1301-B36A-4728-A1BE-34435FFBD109}" name="SK3_100" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{DD047679-330F-4ACA-990B-003C89338821}" name="delay" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{6686CE0A-E625-45A3-96EB-2A9C6A9D9C49}" name="SK1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{E6F14D97-9883-4D11-BDBE-F3C4223E1CA7}" name="SK2 " dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2D723C82-7823-45F3-BBBE-8ABC99DB7E83}" name="SK3_20" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{622753E4-4F54-48F4-9D5B-86F6F733A9C7}" name="SK3_40" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B8E67B57-9FAD-4516-A5B4-F7AC9474318F}" name="SK3_70" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{920E1301-B36A-4728-A1BE-34435FFBD109}" name="SK3_100" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7574,7 +7585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CF5371-4BDF-4DE0-8BDB-1F6B1D24B321}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -7803,4 +7814,205 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55924-B02C-4A14-B34C-6391816E5E6E}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>200</v>
+      </c>
+      <c r="F1">
+        <v>2000</v>
+      </c>
+      <c r="G1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>605.60799999999995</v>
+      </c>
+      <c r="E2">
+        <v>609.33799999999997</v>
+      </c>
+      <c r="G2">
+        <v>581.16200000000003</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>333.17399999999998</v>
+      </c>
+      <c r="E3">
+        <v>2460.9270000000001</v>
+      </c>
+      <c r="F3">
+        <v>10852.589</v>
+      </c>
+      <c r="G3">
+        <v>10043.641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>201.15700000000001</v>
+      </c>
+      <c r="E4">
+        <v>200.495</v>
+      </c>
+      <c r="F4">
+        <v>201.465</v>
+      </c>
+      <c r="G4">
+        <v>201.869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1.44</v>
+      </c>
+      <c r="E8">
+        <v>1.46</v>
+      </c>
+      <c r="G8">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1.01</v>
+      </c>
+      <c r="E9">
+        <v>1.58</v>
+      </c>
+      <c r="F9">
+        <v>2.95</v>
+      </c>
+      <c r="G9">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>968</v>
+      </c>
+      <c r="E10">
+        <v>969</v>
+      </c>
+      <c r="F10">
+        <v>968</v>
+      </c>
+      <c r="G10">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>2000</v>
+      </c>
+      <c r="G13">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/graphResult.xlsx
+++ b/graphResult.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reghn\Documents\GitHub\skripsksh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reghn\Documents\Github\skripsksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB0209B-B9CF-474B-8955-A2D42D0E977B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38C16A5-85D9-4A57-99D8-FDDDD8AC43BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
+    <workbookView xWindow="18240" yWindow="750" windowWidth="12240" windowHeight="12870" activeTab="3" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Datas" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="mixed" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
   <si>
     <t>TCP_Name</t>
   </si>
@@ -146,6 +147,42 @@
   </si>
   <si>
     <t>pkt loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubic </t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>SK3_200</t>
+  </si>
+  <si>
+    <t>SK3_2000</t>
+  </si>
+  <si>
+    <t>SK3_20_nbt</t>
+  </si>
+  <si>
+    <t>SK3_40_nbt</t>
+  </si>
+  <si>
+    <t>SK3_70_nbt</t>
+  </si>
+  <si>
+    <t>SK3_100_nbt</t>
+  </si>
+  <si>
+    <t>SK3_def_btl</t>
+  </si>
+  <si>
+    <t>SK3_20000</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>MixL</t>
   </si>
 </sst>
 </file>
@@ -7274,7 +7311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61643504-8CD3-4496-87A8-970EF44ED9F6}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
@@ -7820,7 +7857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55924-B02C-4A14-B34C-6391816E5E6E}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -8015,4 +8052,290 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30219F6-D427-4FD4-8879-A5BBCF56A3CE}">
+  <dimension ref="A2:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.02</v>
+      </c>
+      <c r="C3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>0.06</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.06</v>
+      </c>
+      <c r="C4">
+        <v>0.04</v>
+      </c>
+      <c r="D4">
+        <v>0.06</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4">
+        <f>-F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2.1</v>
+      </c>
+      <c r="C6">
+        <v>2.4</v>
+      </c>
+      <c r="D6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>5.4</v>
+      </c>
+      <c r="H6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>2.1</v>
+      </c>
+      <c r="C7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>7.3</v>
+      </c>
+      <c r="H7">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>2.1</v>
+      </c>
+      <c r="C8">
+        <v>3.1</v>
+      </c>
+      <c r="D8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>7.3</v>
+      </c>
+      <c r="H8">
+        <v>190</v>
+      </c>
+      <c r="I8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>2.1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>7.3</v>
+      </c>
+      <c r="H9">
+        <v>163</v>
+      </c>
+      <c r="I9">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>2E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.02</v>
+      </c>
+      <c r="D10">
+        <v>0.02</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>2E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.01</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="C12">
+        <v>1E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.04</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.02</v>
+      </c>
+      <c r="D13">
+        <v>0.09</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>2.1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>6.8</v>
+      </c>
+      <c r="H17">
+        <v>105</v>
+      </c>
+      <c r="I17">
+        <v>2.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/graphResult.xlsx
+++ b/graphResult.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reghn\Documents\Github\skripsksh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reghn\Documents\GitHub\skripsksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38C16A5-85D9-4A57-99D8-FDDDD8AC43BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498751E9-63D0-4F90-8CFF-7C48BC2ED886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18240" yWindow="750" windowWidth="12240" windowHeight="12870" activeTab="3" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Datas" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="mixed" sheetId="4" r:id="rId4"/>
+    <sheet name="pktlss &amp; delay" sheetId="2" r:id="rId2"/>
+    <sheet name="SL" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="61">
   <si>
     <t>TCP_Name</t>
   </si>
@@ -179,17 +179,53 @@
     <t>SK3_20000</t>
   </si>
   <si>
-    <t>-</t>
+    <t>MixL</t>
   </si>
   <si>
-    <t>MixL</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>0,04</t>
+  </si>
+  <si>
+    <t>0,03</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>0,06</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>SK3_20_btl</t>
+  </si>
+  <si>
+    <t>SK3_200_btl</t>
+  </si>
+  <si>
+    <t>SK3_2000_btl</t>
+  </si>
+  <si>
+    <t>SK3_20000_btl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,14 +234,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -213,7 +242,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -228,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -236,43 +265,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="135"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="135"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="26">
     <dxf>
       <font>
         <b val="0"/>
@@ -284,14 +347,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -304,14 +367,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -324,14 +387,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -344,14 +407,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -364,14 +427,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -384,14 +447,94 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -404,7 +547,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="20"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -422,7 +565,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="20"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -440,7 +583,21 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="20"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -450,12 +607,31 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -472,7 +648,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -489,7 +665,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -506,7 +682,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -523,7 +699,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -540,7 +716,75 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -560,31 +804,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="20"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6920,6 +7145,70 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E146AC58-2048-401F-A58B-AF6831D60E2B}" name="Table1347813" displayName="Table1347813" ref="A137:C140" totalsRowShown="0">
+  <autoFilter ref="A137:C140" xr:uid="{8A1C9C3A-734A-467A-AA77-6B899868C460}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{035D3C07-6362-472F-9296-1E114D2E5AF5}" name="TCP_Name"/>
+    <tableColumn id="2" xr3:uid="{05660E3F-9BF0-41EA-A2A0-6EA69A7DF9D6}" name="Packet Sent "/>
+    <tableColumn id="3" xr3:uid="{5ABFA015-8994-44B1-ACE0-0FD3BA4DE31F}" name="Bandwidth (Mbits/s)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00E8D889-7803-4086-869B-993145E008E5}" name="Table1347814" displayName="Table1347814" ref="A142:C145" totalsRowShown="0">
+  <autoFilter ref="A142:C145" xr:uid="{2D5E8D89-09C6-4007-A06E-ED590EC32CD5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C38F7980-EECF-4D2F-8BB4-8361C7FEFC08}" name="TCP_Name"/>
+    <tableColumn id="2" xr3:uid="{11D4F17B-F0E3-49F8-A24B-4565FB3D1E5A}" name="Packet Sent "/>
+    <tableColumn id="3" xr3:uid="{91672E6A-B075-4082-86B8-602B9BAB1070}" name="Bandwidth (Mbits/s)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06DE867D-4848-4217-807B-6D3D118B0163}" name="Table8" displayName="Table8" ref="A8:K12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A8:K12" xr:uid="{CCC40E2A-CCFD-4750-9227-4D4467124EFA}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{3573CD99-7270-44D5-BC95-BF3F7C6255E9}" name="Packet_Loss " dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{BAB04D87-0219-4AAA-8FE0-BAA8024E00A4}" name="SK1" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{A14BB3EC-0DBD-4079-BCFB-CA1DB610A841}" name="SK2 " dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{9B9114BA-C09D-4DE6-849B-EF5DBAB2FAF6}" name="SK3_20" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{C36F9893-2037-41F1-9058-33295B04C82A}" name="SK3_40" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{2F3EF4EE-BDDD-4121-9C24-3638F0D5EE2D}" name="SK3_70" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{6AFC07A9-190D-47E1-A2D4-1DC42A86B7DA}" name="SK3_100" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{9A980841-6A09-48F8-82EB-4808CE67A14B}" name="20" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{AE6A9426-8311-4116-8F46-786859BB1DDA}" name="200" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{D3B472B1-35EF-4862-8261-32C6E24611FC}" name="2000" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{C28FE47D-D0D4-4988-A079-2505EF49939E}" name="20000" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{64E491BB-3C16-4822-9821-14FBDEED8961}" name="Table9" displayName="Table9" ref="A1:K4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K4" xr:uid="{0BCA28B2-EFC3-4D9A-9E42-9B0637D35BCC}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{DD047679-330F-4ACA-990B-003C89338821}" name="delay" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6686CE0A-E625-45A3-96EB-2A9C6A9D9C49}" name="SK1" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E6F14D97-9883-4D11-BDBE-F3C4223E1CA7}" name="SK2 " dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{2D723C82-7823-45F3-BBBE-8ABC99DB7E83}" name="SK3_20" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{622753E4-4F54-48F4-9D5B-86F6F733A9C7}" name="SK3_40" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B8E67B57-9FAD-4516-A5B4-F7AC9474318F}" name="SK3_70" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{920E1301-B36A-4728-A1BE-34435FFBD109}" name="SK3_100" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{6DB6F1D6-7EC7-4479-B926-5BF2F5462889}" name="20" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{A3B3C4D1-4080-447C-9510-323243FDEFAB}" name="200" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{6C5240B8-75F0-4F65-83BF-B84CA491585C}" name="2000" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{F1D7CB35-7AA2-4DF4-B406-94846863B2EE}" name="20000" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F22B9E45-78EE-4385-AE81-92AF27AC619E}" name="Table13" displayName="Table13" ref="A21:C24" totalsRowShown="0">
   <autoFilter ref="A21:C24" xr:uid="{2D94A8D3-7655-41A8-A128-D53CE0B7469F}"/>
@@ -6981,34 +7270,38 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06DE867D-4848-4217-807B-6D3D118B0163}" name="Table8" displayName="Table8" ref="A8:G11" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A8:G11" xr:uid="{CCC40E2A-CCFD-4750-9227-4D4467124EFA}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3573CD99-7270-44D5-BC95-BF3F7C6255E9}" name="Packet_Loss " dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{BAB04D87-0219-4AAA-8FE0-BAA8024E00A4}" name="SK1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{A14BB3EC-0DBD-4079-BCFB-CA1DB610A841}" name="SK2 " dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{9B9114BA-C09D-4DE6-849B-EF5DBAB2FAF6}" name="SK3_20" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{C36F9893-2037-41F1-9058-33295B04C82A}" name="SK3_40" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{2F3EF4EE-BDDD-4121-9C24-3638F0D5EE2D}" name="SK3_70" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{6AFC07A9-190D-47E1-A2D4-1DC42A86B7DA}" name="SK3_100" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{05F45CED-570E-4DD2-914D-6BD806875215}" name="Table13478" displayName="Table13478" ref="A122:C125" totalsRowShown="0">
+  <autoFilter ref="A122:C125" xr:uid="{A44EAD7B-AF80-425B-B174-16E56A83C736}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{720B25E4-52CB-42EE-ADA6-834197B9594D}" name="TCP_Name"/>
+    <tableColumn id="2" xr3:uid="{386455D7-6538-4E8E-85A6-4364A95F10F1}" name="Packet Sent "/>
+    <tableColumn id="3" xr3:uid="{577907B4-3FF3-464E-88E1-5C8267348437}" name="Bandwidth (Mbits/s)"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{64E491BB-3C16-4822-9821-14FBDEED8961}" name="Table9" displayName="Table9" ref="A1:G4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G4" xr:uid="{0BCA28B2-EFC3-4D9A-9E42-9B0637D35BCC}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DD047679-330F-4ACA-990B-003C89338821}" name="delay" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6686CE0A-E625-45A3-96EB-2A9C6A9D9C49}" name="SK1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E6F14D97-9883-4D11-BDBE-F3C4223E1CA7}" name="SK2 " dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{2D723C82-7823-45F3-BBBE-8ABC99DB7E83}" name="SK3_20" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{622753E4-4F54-48F4-9D5B-86F6F733A9C7}" name="SK3_40" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B8E67B57-9FAD-4516-A5B4-F7AC9474318F}" name="SK3_70" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{920E1301-B36A-4728-A1BE-34435FFBD109}" name="SK3_100" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8B1133C8-1A29-4372-AE52-9870DB0171A3}" name="Table1347811" displayName="Table1347811" ref="A127:C130" totalsRowShown="0">
+  <autoFilter ref="A127:C130" xr:uid="{9A9062A9-3BEB-4A29-B0D0-AB615C44EDC7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C7BC3459-A493-4BA7-A12B-DD77316D6502}" name="TCP_Name"/>
+    <tableColumn id="2" xr3:uid="{0912AD40-6D0E-414B-976C-2489CFE2C7AF}" name="Packet Sent "/>
+    <tableColumn id="3" xr3:uid="{31A1016E-A8E9-4BDD-AD40-F4634C726DB2}" name="Bandwidth (Mbits/s)"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E28DBA6F-6682-4461-9243-29F1AC24ED80}" name="Table1347812" displayName="Table1347812" ref="A132:C135" totalsRowShown="0">
+  <autoFilter ref="A132:C135" xr:uid="{C0357469-A932-4B5D-B7E5-60DF5F1AFF98}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F1646C01-7D12-488B-84C4-AE2A8670DC80}" name="TCP_Name"/>
+    <tableColumn id="2" xr3:uid="{85F8A744-8947-4EFA-A5A1-8647F4E42B02}" name="Packet Sent "/>
+    <tableColumn id="3" xr3:uid="{BEF781F3-4B97-4CA0-B94D-3D0A139835A0}" name="Bandwidth (Mbits/s)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7309,10 +7602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61643504-8CD3-4496-87A8-970EF44ED9F6}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7604,243 +7897,604 @@
         <v>949</v>
       </c>
     </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>10.3</v>
+      </c>
+      <c r="C123">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>7.27</v>
+      </c>
+      <c r="C124">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>6.97</v>
+      </c>
+      <c r="C125">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128">
+        <v>10.4</v>
+      </c>
+      <c r="C128">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>11.2</v>
+      </c>
+      <c r="C129">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130">
+        <v>6.97</v>
+      </c>
+      <c r="C130">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <v>10.5</v>
+      </c>
+      <c r="C133">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>21.4</v>
+      </c>
+      <c r="C134">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135">
+        <v>6.97</v>
+      </c>
+      <c r="C135">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>10.1</v>
+      </c>
+      <c r="C138">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>20.8</v>
+      </c>
+      <c r="C139">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140">
+        <v>6.97</v>
+      </c>
+      <c r="C140">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="11">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CF5371-4BDF-4DE0-8BDB-1F6B1D24B321}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="H2" s="8">
+        <v>605.60799999999995</v>
+      </c>
+      <c r="I2" s="8">
+        <v>609.33799999999997</v>
+      </c>
+      <c r="J2" s="8">
+        <v>607.41600000000005</v>
+      </c>
+      <c r="K2" s="8">
+        <v>581.16200000000003</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="12">
         <v>29.437000000000001</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="H3" s="8">
+        <v>201.15700000000001</v>
+      </c>
+      <c r="I3" s="8">
+        <v>200.495</v>
+      </c>
+      <c r="J3" s="8">
+        <v>201.465</v>
+      </c>
+      <c r="K3" s="8">
+        <v>201.869</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="H4" s="13">
+        <v>333.17399999999998</v>
+      </c>
+      <c r="I4" s="13">
+        <v>2460.9270000000001</v>
+      </c>
+      <c r="J4" s="13">
+        <v>10852.589</v>
+      </c>
+      <c r="K4" s="14">
+        <v>10043.641</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="H8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>0</v>
       </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>0</v>
       </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>0.03</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7854,199 +8508,303 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55924-B02C-4A14-B34C-6391816E5E6E}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30219F6-D427-4FD4-8879-A5BBCF56A3CE}">
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1">
-        <v>20</v>
-      </c>
-      <c r="E1">
-        <v>200</v>
-      </c>
-      <c r="F1">
-        <v>2000</v>
-      </c>
-      <c r="G1">
-        <v>20000</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>23</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>190</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>605.60799999999995</v>
-      </c>
-      <c r="E2">
-        <v>609.33799999999997</v>
-      </c>
-      <c r="G2">
-        <v>581.16200000000003</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
+      <c r="D9" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>163</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>333.17399999999998</v>
-      </c>
-      <c r="E3">
-        <v>2460.9270000000001</v>
-      </c>
-      <c r="F3">
-        <v>10852.589</v>
-      </c>
-      <c r="G3">
-        <v>10043.641</v>
-      </c>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>201.15700000000001</v>
-      </c>
-      <c r="E4">
-        <v>200.495</v>
-      </c>
-      <c r="F4">
-        <v>201.465</v>
-      </c>
-      <c r="G4">
-        <v>201.869</v>
-      </c>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>200</v>
-      </c>
-      <c r="F7">
-        <v>2000</v>
-      </c>
-      <c r="G7">
-        <v>20000</v>
-      </c>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1.44</v>
-      </c>
-      <c r="E8">
-        <v>1.46</v>
-      </c>
-      <c r="G8">
-        <v>1.41</v>
-      </c>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1.01</v>
-      </c>
-      <c r="E9">
-        <v>1.58</v>
-      </c>
-      <c r="F9">
-        <v>2.95</v>
-      </c>
-      <c r="G9">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>968</v>
-      </c>
-      <c r="E10">
-        <v>969</v>
-      </c>
-      <c r="F10">
-        <v>968</v>
-      </c>
-      <c r="G10">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-      <c r="F13">
-        <v>2000</v>
-      </c>
-      <c r="G13">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>2.1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>6.8</v>
+      </c>
+      <c r="H17">
+        <v>105</v>
+      </c>
+      <c r="I17">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -8055,284 +8813,199 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30219F6-D427-4FD4-8879-A5BBCF56A3CE}">
-  <dimension ref="A2:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55924-B02C-4A14-B34C-6391816E5E6E}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>200</v>
+      </c>
+      <c r="F1">
+        <v>2000</v>
+      </c>
+      <c r="G1">
+        <v>20000</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
+      <c r="D2">
+        <v>605.60799999999995</v>
+      </c>
+      <c r="E2">
+        <v>609.33799999999997</v>
+      </c>
+      <c r="G2">
+        <v>581.16200000000003</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.02</v>
-      </c>
-      <c r="C3">
-        <v>0.02</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0.06</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
+        <v>333.17399999999998</v>
+      </c>
+      <c r="E3">
+        <v>2460.9270000000001</v>
+      </c>
+      <c r="F3">
+        <v>10852.589</v>
+      </c>
+      <c r="G3">
+        <v>10043.641</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.06</v>
-      </c>
-      <c r="C4">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>0.06</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4">
-        <f>-F15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>2.1</v>
-      </c>
-      <c r="C6">
-        <v>2.4</v>
-      </c>
-      <c r="D6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>5.4</v>
-      </c>
-      <c r="H6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I6">
-        <v>2.6</v>
+        <v>201.15700000000001</v>
+      </c>
+      <c r="E4">
+        <v>200.495</v>
+      </c>
+      <c r="F4">
+        <v>201.465</v>
+      </c>
+      <c r="G4">
+        <v>201.869</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>2.1</v>
-      </c>
-      <c r="C7">
-        <v>8.3000000000000007</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
       </c>
       <c r="G7">
-        <v>7.3</v>
-      </c>
-      <c r="H7">
-        <v>23</v>
-      </c>
-      <c r="I7">
-        <v>2.7</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>2.1</v>
-      </c>
-      <c r="C8">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
+        <v>1.44</v>
+      </c>
+      <c r="E8">
+        <v>1.46</v>
       </c>
       <c r="G8">
-        <v>7.3</v>
-      </c>
-      <c r="H8">
-        <v>190</v>
-      </c>
-      <c r="I8">
-        <v>2.7</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9">
-        <v>2.1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
+        <v>1.01</v>
+      </c>
+      <c r="E9">
+        <v>1.58</v>
+      </c>
+      <c r="F9">
+        <v>2.95</v>
       </c>
       <c r="G9">
-        <v>7.3</v>
-      </c>
-      <c r="H9">
-        <v>163</v>
-      </c>
-      <c r="I9">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10">
-        <v>2E-3</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0.02</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11">
-        <v>2E-3</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12">
-        <v>0.01</v>
-      </c>
-      <c r="C12">
-        <v>1E-3</v>
-      </c>
-      <c r="D12">
-        <v>0.04</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
+        <v>968</v>
+      </c>
+      <c r="E10">
+        <v>969</v>
+      </c>
+      <c r="F10">
+        <v>968</v>
+      </c>
+      <c r="G10">
+        <v>969</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
-        <v>1E-3</v>
-      </c>
-      <c r="C13">
-        <v>0.02</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>0.09</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>2000</v>
+      </c>
+      <c r="G13">
+        <v>20000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>2.1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17">
-        <v>6.8</v>
-      </c>
-      <c r="H17">
-        <v>105</v>
-      </c>
-      <c r="I17">
-        <v>2.6</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/graphResult.xlsx
+++ b/graphResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reghn\Documents\GitHub\skripsksh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reghn\Documents\Github\skripsksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498751E9-63D0-4F90-8CFF-7C48BC2ED886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3EAB10-1122-447C-8A55-CC29BA522B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
+    <workbookView xWindow="14775" yWindow="2730" windowWidth="12240" windowHeight="12870" activeTab="2" xr2:uid="{9D731A2E-6822-4CEF-BF36-A0E7E80B1D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="65">
   <si>
     <t>TCP_Name</t>
   </si>
@@ -209,23 +231,35 @@
     <t>0,6</t>
   </si>
   <si>
-    <t>SK3_20_btl</t>
+    <t>Queue Size 20</t>
   </si>
   <si>
-    <t>SK3_200_btl</t>
+    <t>Queue Size 200</t>
   </si>
   <si>
-    <t>SK3_2000_btl</t>
+    <t>Queue Size 2000</t>
   </si>
   <si>
-    <t>SK3_20000_btl</t>
+    <t>Queue Size 20000</t>
+  </si>
+  <si>
+    <t>Queue Size Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packet loss </t>
+  </si>
+  <si>
+    <t>delay (ms)</t>
+  </si>
+  <si>
+    <t>SK2_1Mb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +278,37 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,10 +355,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -331,11 +397,284 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -592,7 +931,211 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -621,7 +1164,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -810,6 +1370,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3654,6 +4247,603 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID" i="1"/>
+              <a:t>Throughput Long Lived Packet</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BBR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$G$122,Sheet1!$G$127,Sheet1!$G$132,Sheet1!$G$137,Sheet1!$G$142)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Queue Size 20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Queue Size 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Queue Size 2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queue Size 20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Queue Size Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$123,Sheet1!$C$128,Sheet1!$C$133,Sheet1!$C$138,Sheet1!$C$143)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-762F-471C-9918-D804A0581785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cubic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$G$122,Sheet1!$G$127,Sheet1!$G$132,Sheet1!$G$137,Sheet1!$G$142)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Queue Size 20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Queue Size 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Queue Size 2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queue Size 20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Queue Size Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$124,Sheet1!$C$129,Sheet1!$C$134,Sheet1!$C$139,Sheet1!$C$144)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-762F-471C-9918-D804A0581785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ledbat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$G$122,Sheet1!$G$127,Sheet1!$G$132,Sheet1!$G$137,Sheet1!$G$142)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Queue Size 20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Queue Size 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Queue Size 2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Queue Size 20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Queue Size Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$125,Sheet1!$C$130,Sheet1!$C$135,Sheet1!$C$140,Sheet1!$C$145)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.96899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-762F-471C-9918-D804A0581785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="528224992"/>
+        <c:axId val="528226960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="528224992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528226960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528226960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528224992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3894,6 +5084,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6410,6 +7637,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7130,6 +8860,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7F5677-BD9C-4D9E-B1D4-95871E84BEAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7170,42 +8936,82 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06DE867D-4848-4217-807B-6D3D118B0163}" name="Table8" displayName="Table8" ref="A8:K12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06DE867D-4848-4217-807B-6D3D118B0163}" name="Table8" displayName="Table8" ref="A8:K12" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A8:K12" xr:uid="{CCC40E2A-CCFD-4750-9227-4D4467124EFA}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3573CD99-7270-44D5-BC95-BF3F7C6255E9}" name="Packet_Loss " dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{BAB04D87-0219-4AAA-8FE0-BAA8024E00A4}" name="SK1" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{A14BB3EC-0DBD-4079-BCFB-CA1DB610A841}" name="SK2 " dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{9B9114BA-C09D-4DE6-849B-EF5DBAB2FAF6}" name="SK3_20" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{C36F9893-2037-41F1-9058-33295B04C82A}" name="SK3_40" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{2F3EF4EE-BDDD-4121-9C24-3638F0D5EE2D}" name="SK3_70" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{6AFC07A9-190D-47E1-A2D4-1DC42A86B7DA}" name="SK3_100" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{9A980841-6A09-48F8-82EB-4808CE67A14B}" name="20" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{AE6A9426-8311-4116-8F46-786859BB1DDA}" name="200" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{D3B472B1-35EF-4862-8261-32C6E24611FC}" name="2000" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{C28FE47D-D0D4-4988-A079-2505EF49939E}" name="20000" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{3573CD99-7270-44D5-BC95-BF3F7C6255E9}" name="Packet_Loss " dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{BAB04D87-0219-4AAA-8FE0-BAA8024E00A4}" name="SK1" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{A14BB3EC-0DBD-4079-BCFB-CA1DB610A841}" name="SK2 " dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{9B9114BA-C09D-4DE6-849B-EF5DBAB2FAF6}" name="SK3_20" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{C36F9893-2037-41F1-9058-33295B04C82A}" name="SK3_40" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{2F3EF4EE-BDDD-4121-9C24-3638F0D5EE2D}" name="SK3_70" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{6AFC07A9-190D-47E1-A2D4-1DC42A86B7DA}" name="SK3_100" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{9A980841-6A09-48F8-82EB-4808CE67A14B}" name="20" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{AE6A9426-8311-4116-8F46-786859BB1DDA}" name="200" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{D3B472B1-35EF-4862-8261-32C6E24611FC}" name="2000" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{C28FE47D-D0D4-4988-A079-2505EF49939E}" name="20000" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{64E491BB-3C16-4822-9821-14FBDEED8961}" name="Table9" displayName="Table9" ref="A1:K4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{64E491BB-3C16-4822-9821-14FBDEED8961}" name="Table9" displayName="Table9" ref="A1:K4" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:K4" xr:uid="{0BCA28B2-EFC3-4D9A-9E42-9B0637D35BCC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DD047679-330F-4ACA-990B-003C89338821}" name="delay" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{6686CE0A-E625-45A3-96EB-2A9C6A9D9C49}" name="SK1" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E6F14D97-9883-4D11-BDBE-F3C4223E1CA7}" name="SK2 " dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{2D723C82-7823-45F3-BBBE-8ABC99DB7E83}" name="SK3_20" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{622753E4-4F54-48F4-9D5B-86F6F733A9C7}" name="SK3_40" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{B8E67B57-9FAD-4516-A5B4-F7AC9474318F}" name="SK3_70" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{920E1301-B36A-4728-A1BE-34435FFBD109}" name="SK3_100" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{6DB6F1D6-7EC7-4479-B926-5BF2F5462889}" name="20" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{A3B3C4D1-4080-447C-9510-323243FDEFAB}" name="200" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{6C5240B8-75F0-4F65-83BF-B84CA491585C}" name="2000" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{F1D7CB35-7AA2-4DF4-B406-94846863B2EE}" name="20000" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DD047679-330F-4ACA-990B-003C89338821}" name="delay" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{6686CE0A-E625-45A3-96EB-2A9C6A9D9C49}" name="SK1" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{E6F14D97-9883-4D11-BDBE-F3C4223E1CA7}" name="SK2 " dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{2D723C82-7823-45F3-BBBE-8ABC99DB7E83}" name="SK3_20" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{622753E4-4F54-48F4-9D5B-86F6F733A9C7}" name="SK3_40" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{B8E67B57-9FAD-4516-A5B4-F7AC9474318F}" name="SK3_70" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{920E1301-B36A-4728-A1BE-34435FFBD109}" name="SK3_100" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{6DB6F1D6-7EC7-4479-B926-5BF2F5462889}" name="20" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{A3B3C4D1-4080-447C-9510-323243FDEFAB}" name="200" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{6C5240B8-75F0-4F65-83BF-B84CA491585C}" name="2000" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{F1D7CB35-7AA2-4DF4-B406-94846863B2EE}" name="20000" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{1983F7E2-968B-49D9-AC93-3A40C7875AD0}" name="Table915" displayName="Table915" ref="N1:X4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="N1:X4" xr:uid="{6DA6D84E-567B-4484-B9BF-C7640B8CB57F}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{3374F056-7B1D-45FB-A0DA-225A29960A7E}" name="delay" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{3CE613CB-2F24-4E5C-980F-139398A22DEB}" name="SK1" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{F949186B-A728-4360-8742-4D740ED69FA5}" name="SK2 " dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{0AD2ED05-A799-449C-8588-0E5346B5B387}" name="SK3_20" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{065F8013-8E2B-445C-A093-297D0E332B98}" name="SK3_40" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{46ABFADB-2B68-4D47-B272-C7CF9FAE950F}" name="SK3_70" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{92DBCC64-5B78-4F2C-AC3A-99AA21A049C7}" name="SK3_100" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{0578B38C-1B7E-43CA-94E5-CE330D976382}" name="20" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{CCEE080D-22D7-425E-A5B5-EBAE4107FF9F}" name="200" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{62CF1ABC-DD9C-47ED-B007-42DFB37021D3}" name="2000" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{5E2CF3D9-8C46-4E5A-B2B2-FD41473515B2}" name="20000" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{4AB43A13-396A-42A5-811B-CC8BBB970C83}" name="Table15" displayName="Table15" ref="N8:X11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="N8:X11" xr:uid="{8EFD43FB-BA09-4276-8ED6-F28E1DD324C3}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{8D336C4C-7D55-48EC-89AC-E3A8E42B0A87}" name="Packet_Loss " dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{908CD8D6-EFF3-43AF-B734-257E3BD4A7AE}" name="SK1" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{05EC01E1-F724-43C9-A990-D680F246B213}" name="SK2 " dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C7297EE7-911C-4825-9ADF-363B6AE6AF92}" name="SK3_20" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{CDD5E3A6-4EEA-4793-8A49-AA14CC5633AC}" name="SK3_40" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{24FFBDD5-4CF4-4390-B172-D96DA7254347}" name="SK3_70" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{106EEE9F-610E-45B9-9F1D-B4A6EC958012}" name="SK3_100" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{F533B613-9BE3-4496-8B31-A36FDDDD8848}" name="20" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{69A0DEC2-CF65-4049-87F3-BB41670530A0}" name="200" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{416B0219-23BC-4B9B-AF0B-9F018CC82D37}" name="2000" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{43EF49FB-1EED-4CFC-93FA-05C7E3F8F4D4}" name="20000" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7604,8 +9410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61643504-8CD3-4496-87A8-970EF44ED9F6}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="S120" sqref="S120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7916,7 +9722,7 @@
         <v>2</v>
       </c>
       <c r="B123">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="C123">
         <v>1.44</v>
@@ -7927,7 +9733,7 @@
         <v>3</v>
       </c>
       <c r="B124">
-        <v>7.27</v>
+        <v>7.28</v>
       </c>
       <c r="C124">
         <v>1.01</v>
@@ -7938,10 +9744,10 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>6.97</v>
+        <v>6.96</v>
       </c>
       <c r="C125">
-        <v>0.96799999999999997</v>
+        <v>0.96899999999999997</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -7963,7 +9769,7 @@
         <v>2</v>
       </c>
       <c r="B128">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="C128">
         <v>1.46</v>
@@ -7977,7 +9783,7 @@
         <v>11.2</v>
       </c>
       <c r="C129">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -7988,7 +9794,7 @@
         <v>6.97</v>
       </c>
       <c r="C130">
-        <v>0.96899999999999997</v>
+        <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -8021,10 +9827,10 @@
         <v>3</v>
       </c>
       <c r="B134">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="C134">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -8057,10 +9863,10 @@
         <v>2</v>
       </c>
       <c r="B138">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="C138">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -8068,10 +9874,10 @@
         <v>3</v>
       </c>
       <c r="B139">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="C139">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -8082,7 +9888,7 @@
         <v>6.97</v>
       </c>
       <c r="C140">
-        <v>0.96899999999999997</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -8095,20 +9901,41 @@
       <c r="C142" t="s">
         <v>5</v>
       </c>
+      <c r="G142" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2</v>
       </c>
+      <c r="B143">
+        <v>10.5</v>
+      </c>
+      <c r="C143">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>3</v>
       </c>
+      <c r="B144">
+        <v>21.2</v>
+      </c>
+      <c r="C144">
+        <v>2.95</v>
+      </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>4</v>
+      </c>
+      <c r="B145">
+        <v>6.97</v>
+      </c>
+      <c r="C145">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
@@ -8132,10 +9959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CF5371-4BDF-4DE0-8BDB-1F6B1D24B321}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8149,7 +9976,7 @@
     <col min="9" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -8183,8 +10010,41 @@
       <c r="K1" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="N1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -8207,19 +10067,44 @@
         <v>33</v>
       </c>
       <c r="H2" s="8">
-        <v>605.60799999999995</v>
+        <v>486.37799999999999</v>
       </c>
       <c r="I2" s="8">
-        <v>609.33799999999997</v>
+        <v>605.34</v>
       </c>
       <c r="J2" s="8">
-        <v>607.41600000000005</v>
+        <v>609.10400000000004</v>
       </c>
       <c r="K2" s="8">
-        <v>581.16200000000003</v>
+        <v>623.05899999999997</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="8">
+        <v>4.3470000000000004</v>
+      </c>
+      <c r="P2" s="8">
+        <v>5.0529999999999999</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8">
+        <v>339.67</v>
+      </c>
+      <c r="V2" s="8">
+        <v>610.274</v>
+      </c>
+      <c r="W2" s="8">
+        <v>607.08500000000004</v>
+      </c>
+      <c r="X2" s="8">
+        <v>614.798</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -8253,8 +10138,33 @@
       <c r="K3" s="8">
         <v>201.869</v>
       </c>
+      <c r="N3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="P3" s="8">
+        <v>40.872999999999998</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8">
+        <v>201.00399999999999</v>
+      </c>
+      <c r="V3" s="8">
+        <v>203.55099999999999</v>
+      </c>
+      <c r="W3" s="8">
+        <v>200.26499999999999</v>
+      </c>
+      <c r="X3" s="8">
+        <v>198.637</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -8288,8 +10198,33 @@
       <c r="K4" s="14">
         <v>10043.641</v>
       </c>
+      <c r="N4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="8">
+        <v>8.2149999999999999</v>
+      </c>
+      <c r="P4" s="8">
+        <v>574.62400000000002</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="13">
+        <v>307.30599999999998</v>
+      </c>
+      <c r="V4" s="13">
+        <v>2517.1709999999998</v>
+      </c>
+      <c r="W4" s="13">
+        <v>13060.821</v>
+      </c>
+      <c r="X4" s="14">
+        <v>13052.892</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -8309,8 +10244,27 @@
       <c r="K5" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -8322,8 +10276,19 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -8335,8 +10300,19 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="57" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -8370,8 +10346,41 @@
       <c r="K8" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="N8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -8405,8 +10414,33 @@
       <c r="K9" s="4">
         <v>0</v>
       </c>
+      <c r="N9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -8440,8 +10474,33 @@
       <c r="K10" s="4">
         <v>0</v>
       </c>
+      <c r="N10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -8475,8 +10534,33 @@
       <c r="K11" s="4">
         <v>0.21</v>
       </c>
+      <c r="N11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -8497,12 +10581,232 @@
         <v>34</v>
       </c>
     </row>
+    <row r="20" spans="7:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="18" t="str" cm="1">
+        <f t="array" ref="H20:K23">Table9[[#All],[20]:[20000]]</f>
+        <v>20</v>
+      </c>
+      <c r="I20" s="18" t="str">
+        <v>200</v>
+      </c>
+      <c r="J20" s="18" t="str">
+        <v>2000</v>
+      </c>
+      <c r="K20" s="18" t="str">
+        <v>20000</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G21" s="16" t="str" cm="1">
+        <f t="array" ref="G21:G23">Table9[delay]</f>
+        <v>BBR</v>
+      </c>
+      <c r="H21" s="19">
+        <v>486.37799999999999</v>
+      </c>
+      <c r="I21" s="19">
+        <v>605.34</v>
+      </c>
+      <c r="J21" s="19">
+        <v>609.10400000000004</v>
+      </c>
+      <c r="K21" s="19">
+        <v>623.05899999999997</v>
+      </c>
+      <c r="M21" cm="1">
+        <f t="array" ref="M21:P23">Table915[[20]:[20000]]</f>
+        <v>339.67</v>
+      </c>
+      <c r="N21">
+        <v>610.274</v>
+      </c>
+      <c r="O21">
+        <v>607.08500000000004</v>
+      </c>
+      <c r="P21">
+        <v>614.798</v>
+      </c>
+    </row>
+    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G22" s="16" t="str">
+        <v>LEDBAT</v>
+      </c>
+      <c r="H22" s="19">
+        <v>201.15700000000001</v>
+      </c>
+      <c r="I22" s="19">
+        <v>200.495</v>
+      </c>
+      <c r="J22" s="19">
+        <v>201.465</v>
+      </c>
+      <c r="K22" s="19">
+        <v>201.869</v>
+      </c>
+      <c r="M22">
+        <v>201.00399999999999</v>
+      </c>
+      <c r="N22">
+        <v>203.55099999999999</v>
+      </c>
+      <c r="O22">
+        <v>200.26499999999999</v>
+      </c>
+      <c r="P22">
+        <v>198.637</v>
+      </c>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G23" s="16" t="str">
+        <v>CUBIC</v>
+      </c>
+      <c r="H23" s="19">
+        <v>333.17399999999998</v>
+      </c>
+      <c r="I23" s="19">
+        <v>2460.9270000000001</v>
+      </c>
+      <c r="J23" s="19">
+        <v>10852.589</v>
+      </c>
+      <c r="K23" s="19">
+        <v>10043.641</v>
+      </c>
+      <c r="M23">
+        <v>307.30599999999998</v>
+      </c>
+      <c r="N23">
+        <v>2517.1709999999998</v>
+      </c>
+      <c r="O23">
+        <v>13060.821</v>
+      </c>
+      <c r="P23">
+        <v>13052.892</v>
+      </c>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G24" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G25" s="16" t="str" cm="1">
+        <f t="array" ref="G25:G27">A9:A11</f>
+        <v>BBR</v>
+      </c>
+      <c r="H25" s="20" cm="1">
+        <f t="array" ref="H25:K27">H9:K11</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="20">
+        <v>0</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0</v>
+      </c>
+      <c r="K25" s="20">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21" cm="1">
+        <f t="array" ref="M25:P27">Table15[[20]:[20000]]</f>
+        <v>0.08</v>
+      </c>
+      <c r="N25" s="21">
+        <v>0</v>
+      </c>
+      <c r="O25" s="21">
+        <v>0</v>
+      </c>
+      <c r="P25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G26" s="16" t="str">
+        <v>LEDBAT</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="20">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21">
+        <v>0</v>
+      </c>
+      <c r="O26" s="21">
+        <v>0</v>
+      </c>
+      <c r="P26" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G27" s="16" t="str">
+        <v>CUBIC</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0.21</v>
+      </c>
+      <c r="I27" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="K27" s="20">
+        <v>0.21</v>
+      </c>
+      <c r="M27" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="N27" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="O27" s="21">
+        <v>0</v>
+      </c>
+      <c r="P27" s="21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8511,8 +10815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30219F6-D427-4FD4-8879-A5BBCF56A3CE}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8596,6 +10900,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
